--- a/exercises/ex3/Hands-On-Upload-File.xlsx
+++ b/exercises/ex3/Hands-On-Upload-File.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/andreas_seifried_sap_com/Documents/Documents/Events/2023_TechEd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D035740\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{7FAE7E52-ACFD-4D2C-A9BD-FEA7B199C5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{243E5480-DF32-43CC-8010-42C8A9FDB312}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25366164-C61D-4459-B5E2-7E7AE8692A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2263" yWindow="2263" windowWidth="24686" windowHeight="13054" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2606" yWindow="2606" windowWidth="24685" windowHeight="13054" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="! Read Me !" sheetId="1" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="219">
   <si>
     <t>! Rows with content here are considered comments</t>
   </si>
@@ -679,9 +679,6 @@
   </si>
   <si>
     <t>PL</t>
-  </si>
-  <si>
-    <t>5 or 6</t>
   </si>
   <si>
     <t>BUT000-BU_SORT2</t>
@@ -1350,11 +1347,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="A15:G15"/>
@@ -1364,6 +1356,11 @@
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1375,8 +1372,8 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1411,7 +1408,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>30</v>
@@ -1461,7 +1458,7 @@
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>44</v>
@@ -1739,7 +1736,7 @@
         <v>57</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>104</v>
@@ -1973,7 +1970,7 @@
         <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>137</v>
@@ -2014,7 +2011,7 @@
         <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>145</v>
@@ -2066,9 +2063,6 @@
       <c r="J17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="L17" s="1" t="s">
         <v>63</v>
       </c>
@@ -2128,7 +2122,7 @@
         <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>162</v>
@@ -2207,7 +2201,7 @@
         <v>57</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>167</v>
@@ -2248,7 +2242,7 @@
         <v>57</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>170</v>
@@ -2327,7 +2321,7 @@
         <v>57</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>174</v>
@@ -2619,6 +2613,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="2e40ecee-c279-4b0a-aca5-dc40494501b9">
@@ -2627,15 +2630,6 @@
     <TaxCatchAll xmlns="c431e56c-8378-426d-8dc6-195d734e594f" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2659,6 +2653,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A15AC9D5-DE49-4257-8726-880561FD234C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A750CE2C-3D87-417F-8DE0-E8FF3B78B29C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="c431e56c-8378-426d-8dc6-195d734e594f"/>
@@ -2674,12 +2676,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A15AC9D5-DE49-4257-8726-880561FD234C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>